--- a/tur.xlsx
+++ b/tur.xlsx
@@ -103,46 +103,46 @@
     <t>Beşiktaş</t>
   </si>
   <si>
+    <t>Yeni Malatyaspor</t>
+  </si>
+  <si>
     <t>Antalyaspor</t>
   </si>
   <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
     <t>MKE Ankaragücü</t>
   </si>
   <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor</t>
+    <t>Atiker Konyaspor</t>
   </si>
   <si>
     <t>Göztepe</t>
   </si>
   <si>
-    <t>Atiker Konyaspor</t>
-  </si>
-  <si>
     <t>Bursaspor</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>BB Erzurumspor</t>
+  </si>
+  <si>
+    <t>Fenerbahçe</t>
+  </si>
+  <si>
+    <t>Akhisarspor</t>
+  </si>
+  <si>
     <t>Kayserispor</t>
   </si>
   <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Fenerbahçe</t>
-  </si>
-  <si>
     <t>Çaykur Rizespor</t>
-  </si>
-  <si>
-    <t>Akhisarspor</t>
-  </si>
-  <si>
-    <t>BB Erzurumspor</t>
   </si>
 </sst>
 </file>
@@ -184,7 +184,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,12 +229,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E77F"/>
-        <bgColor rgb="FFE7E77F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF03B3B"/>
         <bgColor rgb="FFF03B3B"/>
       </patternFill>
@@ -246,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -295,16 +289,7 @@
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -419,10 +404,10 @@
         <v>26</v>
       </c>
       <c r="C2" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D2" s="5">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E2" s="5">
         <v>3.0</v>
@@ -431,67 +416,67 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="J2" s="7">
+        <f>+14</f>
+        <v>14</v>
+      </c>
+      <c r="K2" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="R2" s="7">
+        <f t="shared" ref="R2:R3" si="1">+10</f>
+        <v>10</v>
+      </c>
+      <c r="S2" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Y2" s="6">
         <v>14.0</v>
       </c>
-      <c r="H2" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="J2" s="7">
-        <f>+10</f>
-        <v>10</v>
-      </c>
-      <c r="K2" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="R2" s="7">
-        <f>+9</f>
-        <v>9</v>
-      </c>
-      <c r="S2" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>8.0</v>
-      </c>
       <c r="Z2" s="8">
-        <f>+1</f>
-        <v>1</v>
+        <f>+4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -502,78 +487,78 @@
         <v>27</v>
       </c>
       <c r="C3" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>25.0</v>
+      </c>
+      <c r="J3" s="13">
+        <f>+10</f>
+        <v>10</v>
+      </c>
+      <c r="K3" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="O3" s="11">
+        <v>17.0</v>
+      </c>
+      <c r="P3" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="R3" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S3" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="U3" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="V3" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="W3" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="X3" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="Y3" s="12">
         <v>10.0</v>
       </c>
-      <c r="D3" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>23.0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="J3" s="13">
-        <f>+7</f>
-        <v>7</v>
-      </c>
-      <c r="K3" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="O3" s="11">
-        <v>13.0</v>
-      </c>
-      <c r="P3" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="R3" s="13">
-        <f>+8</f>
-        <v>8</v>
-      </c>
-      <c r="S3" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="T3" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="U3" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="V3" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="W3" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="X3" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>7.0</v>
-      </c>
       <c r="Z3" s="11">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -584,60 +569,60 @@
         <v>28</v>
       </c>
       <c r="C4" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" s="5">
         <v>3.0</v>
       </c>
       <c r="G4" s="5">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="H4" s="5">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="I4" s="6">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="J4" s="7">
-        <f>+5</f>
-        <v>5</v>
+        <f>+8</f>
+        <v>8</v>
       </c>
       <c r="K4" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L4" s="5">
         <v>4.0</v>
       </c>
       <c r="M4" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N4" s="5">
         <v>0.0</v>
       </c>
       <c r="O4" s="5">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="P4" s="5">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q4" s="6">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="R4" s="7">
         <f>+11</f>
         <v>11</v>
       </c>
       <c r="S4" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T4" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U4" s="5">
         <v>0.0</v>
@@ -646,16 +631,16 @@
         <v>3.0</v>
       </c>
       <c r="W4" s="5">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="X4" s="5">
         <v>10.0</v>
       </c>
       <c r="Y4" s="6">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="Z4" s="5">
-        <v>-6.0</v>
+        <v>-3.0</v>
       </c>
     </row>
     <row r="5">
@@ -666,32 +651,32 @@
         <v>29</v>
       </c>
       <c r="C5" s="11">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D5" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E5" s="11">
         <v>3.0</v>
       </c>
       <c r="F5" s="11">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" s="11">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="H5" s="11">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" s="12">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="J5" s="13">
-        <f>+6</f>
-        <v>6</v>
+        <f>+7</f>
+        <v>7</v>
       </c>
       <c r="K5" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L5" s="11">
         <v>4.0</v>
@@ -700,44 +685,45 @@
         <v>0.0</v>
       </c>
       <c r="N5" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O5" s="11">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="P5" s="11">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q5" s="12">
         <v>12.0</v>
       </c>
       <c r="R5" s="13">
-        <f>+6</f>
-        <v>6</v>
+        <f>+5</f>
+        <v>5</v>
       </c>
       <c r="S5" s="11">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T5" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U5" s="11">
         <v>3.0</v>
       </c>
       <c r="V5" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W5" s="11">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="X5" s="11">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y5" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>0.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Z5" s="15">
+        <f>+2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -748,77 +734,78 @@
         <v>30</v>
       </c>
       <c r="C6" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D6" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E6" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" s="5">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="H6" s="5">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="I6" s="6">
-        <v>17.0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>-2.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="J6" s="7">
+        <f>+6</f>
+        <v>6</v>
       </c>
       <c r="K6" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L6" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="M6" s="5">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="N6" s="5">
         <v>1.0</v>
       </c>
       <c r="O6" s="5">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="P6" s="5">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q6" s="6">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="R6" s="7">
-        <f>+1</f>
-        <v>1</v>
+        <f>+8</f>
+        <v>8</v>
       </c>
       <c r="S6" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T6" s="5">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U6" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="V6" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W6" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="X6" s="5">
         <v>8.0</v>
       </c>
       <c r="Y6" s="6">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="Z6" s="5">
-        <v>-3.0</v>
+        <v>-2.0</v>
       </c>
     </row>
     <row r="7">
@@ -829,78 +816,76 @@
         <v>31</v>
       </c>
       <c r="C7" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-3.0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U7" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="W7" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="X7" s="11">
         <v>10.0</v>
       </c>
-      <c r="D7" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="Y7" s="12">
         <v>12.0</v>
       </c>
-      <c r="H7" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="J7" s="13">
-        <f>+2</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="R7" s="11">
-        <v>-1.0</v>
-      </c>
-      <c r="S7" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="T7" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="U7" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="V7" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="W7" s="11">
-        <v>7.0</v>
-      </c>
-      <c r="X7" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>9.0</v>
-      </c>
-      <c r="Z7" s="15">
-        <f>+3</f>
-        <v>3</v>
+      <c r="Z7" s="11">
+        <v>-3.0</v>
       </c>
     </row>
     <row r="8">
@@ -911,78 +896,78 @@
         <v>32</v>
       </c>
       <c r="C8" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D8" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G8" s="5">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="H8" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>+2</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="R8" s="7">
+        <f>+8</f>
+        <v>8</v>
+      </c>
+      <c r="S8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="X8" s="5">
         <v>12.0</v>
       </c>
-      <c r="I8" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J8" s="7">
-        <f>+6</f>
-        <v>6</v>
-      </c>
-      <c r="K8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="R8" s="7">
-        <f>+7</f>
-        <v>7</v>
-      </c>
-      <c r="S8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>7.0</v>
-      </c>
       <c r="Y8" s="6">
         <v>5.0</v>
       </c>
       <c r="Z8" s="5">
-        <v>-1.0</v>
+        <v>-6.0</v>
       </c>
     </row>
     <row r="9">
@@ -993,32 +978,31 @@
         <v>33</v>
       </c>
       <c r="C9" s="11">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D9" s="11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G9" s="11">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="H9" s="11">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="I9" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="J9" s="13">
-        <f>+3</f>
-        <v>3</v>
+        <v>19.0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>-1.0</v>
       </c>
       <c r="K9" s="11">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L9" s="11">
         <v>3.0</v>
@@ -1027,44 +1011,44 @@
         <v>1.0</v>
       </c>
       <c r="N9" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="O9" s="11">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P9" s="11">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q9" s="12">
         <v>10.0</v>
       </c>
-      <c r="R9" s="13">
-        <f>+3</f>
-        <v>3</v>
+      <c r="R9" s="11">
+        <v>-2.0</v>
       </c>
       <c r="S9" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T9" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U9" s="11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="11">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="W9" s="11">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="X9" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Y9" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="Z9" s="11">
-        <v>0.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="Z9" s="15">
+        <f>+1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1075,77 +1059,79 @@
         <v>34</v>
       </c>
       <c r="C10" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="J10" s="7">
+        <f>+3</f>
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="R10" s="7">
+        <f>+1</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="W10" s="5">
         <v>10.0</v>
       </c>
-      <c r="D10" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="O10" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="P10" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="R10" s="7">
-        <f>+4</f>
-        <v>4</v>
-      </c>
-      <c r="S10" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="V10" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="W10" s="5">
-        <v>3.0</v>
-      </c>
       <c r="X10" s="5">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="Y10" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>-4.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="Z10" s="8">
+        <f>+2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1156,78 +1142,77 @@
         <v>35</v>
       </c>
       <c r="C11" s="11">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D11" s="11">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="E11" s="11">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="11">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G11" s="11">
         <v>15.0</v>
       </c>
       <c r="H11" s="11">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="I11" s="12">
-        <v>13.0</v>
-      </c>
-      <c r="J11" s="13">
-        <f>+1</f>
-        <v>1</v>
+        <v>18.0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>-1.0</v>
       </c>
       <c r="K11" s="11">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="L11" s="11">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="M11" s="11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" s="11">
         <v>2.0</v>
       </c>
       <c r="O11" s="11">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="P11" s="11">
         <v>7.0</v>
       </c>
       <c r="Q11" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="R11" s="11">
-        <v>-1.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="R11" s="13">
+        <f>+4</f>
+        <v>4</v>
       </c>
       <c r="S11" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T11" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U11" s="11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V11" s="11">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="W11" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="X11" s="11">
         <v>9.0</v>
       </c>
-      <c r="X11" s="11">
-        <v>7.0</v>
-      </c>
       <c r="Y11" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="Z11" s="15">
-        <f>+2</f>
-        <v>2</v>
+        <v>3.0</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>-5.0</v>
       </c>
     </row>
     <row r="12">
@@ -1238,31 +1223,32 @@
         <v>36</v>
       </c>
       <c r="C12" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D12" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E12" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F12" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" s="5">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="H12" s="5">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="I12" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>+1</f>
+        <v>1</v>
       </c>
       <c r="K12" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L12" s="5">
         <v>2.0</v>
@@ -1271,44 +1257,44 @@
         <v>3.0</v>
       </c>
       <c r="N12" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O12" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P12" s="5">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q12" s="6">
         <v>9.0</v>
       </c>
       <c r="R12" s="7">
-        <f>+3</f>
-        <v>3</v>
+        <f>+2</f>
+        <v>2</v>
       </c>
       <c r="S12" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T12" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V12" s="5">
         <v>2.0</v>
       </c>
       <c r="W12" s="5">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="X12" s="5">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y12" s="6">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z12" s="5">
-        <v>-3.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1319,74 +1305,73 @@
         <v>37</v>
       </c>
       <c r="C13" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-4.0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="P13" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>10.0</v>
       </c>
-      <c r="D13" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="R13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="S13" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="V13" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="W13" s="11">
         <v>9.0</v>
       </c>
-      <c r="H13" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-2.0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="O13" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="R13" s="13">
-        <f>+2</f>
-        <v>2</v>
-      </c>
-      <c r="S13" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="U13" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="W13" s="11">
-        <v>3.0</v>
-      </c>
       <c r="X13" s="11">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y13" s="12">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z13" s="11">
         <v>-4.0</v>
@@ -1400,55 +1385,56 @@
         <v>38</v>
       </c>
       <c r="C14" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D14" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E14" s="5">
         <v>0.0</v>
       </c>
       <c r="F14" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G14" s="5">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="H14" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="I14" s="6">
         <v>15.0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="5">
+        <v>-7.0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>12.0</v>
       </c>
-      <c r="J14" s="5">
-        <v>-9.0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="L14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="O14" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="P14" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="R14" s="5">
-        <v>0.0</v>
+      <c r="R14" s="7">
+        <f>+4</f>
+        <v>4</v>
       </c>
       <c r="S14" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T14" s="5">
         <v>1.0</v>
@@ -1457,99 +1443,99 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="W14" s="5">
         <v>2.0</v>
       </c>
       <c r="X14" s="5">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y14" s="6">
         <v>3.0</v>
       </c>
       <c r="Z14" s="5">
-        <v>-9.0</v>
+        <v>-11.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16">
+      <c r="A15" s="11">
         <v>14.0</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>-3.0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="Q15" s="12">
         <v>10.0</v>
       </c>
-      <c r="D15" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>17.0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="J15" s="16">
-        <v>-5.0</v>
-      </c>
-      <c r="K15" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="L15" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="M15" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="N15" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="P15" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="R15" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="T15" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="V15" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="W15" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="X15" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="Z15" s="16">
-        <v>-5.0</v>
+      <c r="R15" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="V15" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="W15" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="16">
@@ -1560,34 +1546,34 @@
         <v>40</v>
       </c>
       <c r="C16" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D16" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E16" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G16" s="5">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="H16" s="5">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="I16" s="6">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="J16" s="5">
-        <v>-6.0</v>
+        <v>-5.0</v>
       </c>
       <c r="K16" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L16" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M16" s="5">
         <v>2.0</v>
@@ -1596,156 +1582,155 @@
         <v>2.0</v>
       </c>
       <c r="O16" s="5">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="P16" s="5">
         <v>8.0</v>
       </c>
       <c r="Q16" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="R16" s="5">
-        <v>-2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T16" s="5">
         <v>1.0</v>
       </c>
       <c r="U16" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V16" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="W16" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="X16" s="5">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="Y16" s="6">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z16" s="5">
-        <v>-4.0</v>
+        <v>-5.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <v>16.0</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="11">
+        <v>13.0</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>-9.0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="O17" s="11">
         <v>10.0</v>
       </c>
-      <c r="D17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="F17" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>-3.0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>7.0</v>
-      </c>
       <c r="P17" s="11">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q17" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="R17" s="13">
-        <f t="shared" ref="R17:R18" si="1">+2</f>
-        <v>2</v>
+        <v>9.0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0.0</v>
       </c>
       <c r="S17" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T17" s="11">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U17" s="11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" s="11">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="W17" s="11">
         <v>5.0</v>
       </c>
       <c r="X17" s="11">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="Y17" s="12">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z17" s="11">
-        <v>-5.0</v>
+        <v>-9.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>17.0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="5">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D18" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E18" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F18" s="5">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G18" s="5">
         <v>10.0</v>
       </c>
       <c r="H18" s="5">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="I18" s="6">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="J18" s="5">
-        <v>-8.0</v>
+        <v>-12.0</v>
       </c>
       <c r="K18" s="5">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L18" s="5">
         <v>2.0</v>
@@ -1754,103 +1739,103 @@
         <v>2.0</v>
       </c>
       <c r="N18" s="5">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O18" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="P18" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q18" s="6">
         <v>8.0</v>
       </c>
-      <c r="R18" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="R18" s="5">
+        <v>-1.0</v>
       </c>
       <c r="S18" s="5">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T18" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" s="5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" s="5">
         <v>5.0</v>
       </c>
       <c r="W18" s="5">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="X18" s="5">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y18" s="6">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z18" s="5">
-        <v>-10.0</v>
+        <v>-11.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <v>18.0</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="11">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="D19" s="11">
         <v>1.0</v>
       </c>
       <c r="E19" s="11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F19" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G19" s="11">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="H19" s="11">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="I19" s="12">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="J19" s="11">
-        <v>-5.0</v>
+        <v>-6.0</v>
       </c>
       <c r="K19" s="11">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="L19" s="11">
         <v>1.0</v>
       </c>
       <c r="M19" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N19" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="O19" s="11">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="P19" s="11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q19" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="R19" s="11">
-        <v>-3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="R19" s="13">
+        <f>+1</f>
+        <v>1</v>
       </c>
       <c r="S19" s="11">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="T19" s="11">
         <v>0.0</v>
@@ -1859,19 +1844,19 @@
         <v>3.0</v>
       </c>
       <c r="V19" s="11">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="W19" s="11">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="X19" s="11">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="Y19" s="12">
         <v>3.0</v>
       </c>
       <c r="Z19" s="11">
-        <v>-2.0</v>
+        <v>-7.0</v>
       </c>
     </row>
   </sheetData>
